--- a/survey-GUI/files/survey-choices.xlsx
+++ b/survey-GUI/files/survey-choices.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumaiyah\OneDrive - University Of Cambridge\Group Project\UpdateSurveyQuestions\gui\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumaiyah\PycharmProjects\FeverFinder\survey-GUI\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="5_{90755AC4-2FFA-4B6E-9006-A054B20330A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A57AF96-B7DB-4594-A092-9541140F3385}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{A4FC235E-7E3C-4BE2-969B-84D51A1A0258}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="378">
   <si>
     <t>name</t>
   </si>
@@ -136,9 +136,6 @@
     <t>begin_group</t>
   </si>
   <si>
-    <t>occupation_1</t>
-  </si>
-  <si>
     <t>${occupation} = '1'</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>What do you farm?</t>
   </si>
   <si>
-    <t>farmer_type_4</t>
-  </si>
-  <si>
     <t>selected(${farmer_type}, '4')</t>
   </si>
   <si>
@@ -166,9 +160,6 @@
     <t>end_group</t>
   </si>
   <si>
-    <t>occupation_2</t>
-  </si>
-  <si>
     <t>${occupation} = '2'</t>
   </si>
   <si>
@@ -178,9 +169,6 @@
     <t>What do you trade?</t>
   </si>
   <si>
-    <t>occupation_9</t>
-  </si>
-  <si>
     <t>${occupation} = '9'</t>
   </si>
   <si>
@@ -226,9 +214,6 @@
     <t xml:space="preserve">Have you heard of Lassa fever? </t>
   </si>
   <si>
-    <t>knows_of_lassa_1</t>
-  </si>
-  <si>
     <t>${knows_of_lassa} = '1'</t>
   </si>
   <si>
@@ -241,15 +226,9 @@
     <t>From where did you get information about Lassa Fever?</t>
   </si>
   <si>
-    <t>info_on_lassa_7</t>
-  </si>
-  <si>
     <t>selected(${info_on_lassa}, '7')</t>
   </si>
   <si>
-    <t>other_infoOnLassa</t>
-  </si>
-  <si>
     <t>Where else did you get information about Lassa Fever?</t>
   </si>
   <si>
@@ -262,9 +241,6 @@
     <t xml:space="preserve">Is there a local name for Lassa Fever? </t>
   </si>
   <si>
-    <t>if_local_name_1</t>
-  </si>
-  <si>
     <t>${if_local_name}='1'</t>
   </si>
   <si>
@@ -289,9 +265,6 @@
     <t xml:space="preserve">Do you know how one can contact this disease? </t>
   </si>
   <si>
-    <t>know_contact_1</t>
-  </si>
-  <si>
     <t>${know_contact}='1'</t>
   </si>
   <si>
@@ -304,9 +277,6 @@
     <t>How can one get the disease</t>
   </si>
   <si>
-    <t>contact_7</t>
-  </si>
-  <si>
     <t>selected(${contact}, '7')</t>
   </si>
   <si>
@@ -340,9 +310,6 @@
     <t xml:space="preserve">What are the signs of Lassa? </t>
   </si>
   <si>
-    <t>signs_5</t>
-  </si>
-  <si>
     <t>selected(${signs}, '5')</t>
   </si>
   <si>
@@ -400,9 +367,6 @@
     <t>Have you come across anyone who suffered from LF?</t>
   </si>
   <si>
-    <t>know_LF_patient_1</t>
-  </si>
-  <si>
     <t>${know_LF_patient} = '1'</t>
   </si>
   <si>
@@ -421,9 +385,6 @@
     <t>What was your relationship with the person?</t>
   </si>
   <si>
-    <t>relationship_7</t>
-  </si>
-  <si>
     <t>${relationship} = '7'</t>
   </si>
   <si>
@@ -442,9 +403,6 @@
     <t>Did the person receive treatment?</t>
   </si>
   <si>
-    <t>seek_treatment_2</t>
-  </si>
-  <si>
     <t>${seek_treatment} = '2'</t>
   </si>
   <si>
@@ -454,9 +412,6 @@
     <t>Why did they not seek treatment?</t>
   </si>
   <si>
-    <t>seek_treatment_1</t>
-  </si>
-  <si>
     <t>${seek_treatment} = '1'</t>
   </si>
   <si>
@@ -484,9 +439,6 @@
     <t>Was the patient treated early?</t>
   </si>
   <si>
-    <t>where_seek_treatment_1</t>
-  </si>
-  <si>
     <t>selected(${where_seek_treatment}, '1')</t>
   </si>
   <si>
@@ -496,18 +448,12 @@
     <t>What is the name of the hospital?</t>
   </si>
   <si>
-    <t>where_seek_treatment_2</t>
-  </si>
-  <si>
     <t>selected(${where_seek_treatment}, '2')</t>
   </si>
   <si>
     <t>Mis_hospital_name</t>
   </si>
   <si>
-    <t>where_seek_treatment_3</t>
-  </si>
-  <si>
     <t>selected(${where_seek_treatment}, '3')</t>
   </si>
   <si>
@@ -520,9 +466,6 @@
     <t>Have you has lassa fever in the past?</t>
   </si>
   <si>
-    <t>had_lassa_1</t>
-  </si>
-  <si>
     <t>${had_lassa}='1'</t>
   </si>
   <si>
@@ -550,9 +493,6 @@
     <t xml:space="preserve">Did you receive treatment for the fever? </t>
   </si>
   <si>
-    <t>fever_treatment_1</t>
-  </si>
-  <si>
     <t>${fever_treatment}='1'</t>
   </si>
   <si>
@@ -565,9 +505,6 @@
     <t>Where did you receive the treatment?</t>
   </si>
   <si>
-    <t>where_fever_treatment_1</t>
-  </si>
-  <si>
     <t>${where_fever_treatment} = '1'</t>
   </si>
   <si>
@@ -583,9 +520,6 @@
     <t xml:space="preserve">Can you tell the type of treatment you received?  </t>
   </si>
   <si>
-    <t>tell_treatment_type_1</t>
-  </si>
-  <si>
     <t>${tell_treatment_type} = '1'</t>
   </si>
   <si>
@@ -601,9 +535,6 @@
     <t xml:space="preserve">Do you know the cause of the fever? </t>
   </si>
   <si>
-    <t>know_fever_cause_1</t>
-  </si>
-  <si>
     <t>${know_fever_cause} = '1'</t>
   </si>
   <si>
@@ -616,9 +547,6 @@
     <t>What was the cause of the fever?</t>
   </si>
   <si>
-    <t>fever_cause_4</t>
-  </si>
-  <si>
     <t>${fever_cause} = '4'</t>
   </si>
   <si>
@@ -634,9 +562,6 @@
     <t>Were you taken care of by any member of your family?</t>
   </si>
   <si>
-    <t>care_by_family_1</t>
-  </si>
-  <si>
     <t>${care_by_family}='1'</t>
   </si>
   <si>
@@ -646,9 +571,6 @@
     <t xml:space="preserve">Did any of them come down with fever later? </t>
   </si>
   <si>
-    <t>family_get_fever_1</t>
-  </si>
-  <si>
     <t>${family_get_fever}='1'</t>
   </si>
   <si>
@@ -664,9 +586,6 @@
     <t xml:space="preserve">Have you seen rats around your home, farm or workplace?  </t>
   </si>
   <si>
-    <t>rats_present_1</t>
-  </si>
-  <si>
     <t>${rats_present}='1'</t>
   </si>
   <si>
@@ -679,9 +598,6 @@
     <t>rat.jpg</t>
   </si>
   <si>
-    <t>mastomys_1</t>
-  </si>
-  <si>
     <t>${mastomys}='1'</t>
   </si>
   <si>
@@ -694,9 +610,6 @@
     <t>Where have you seen this rat?</t>
   </si>
   <si>
-    <t>where_rat_4</t>
-  </si>
-  <si>
     <t>selected(${where_rat}, '4')</t>
   </si>
   <si>
@@ -721,9 +634,6 @@
     <t>What time of the year do you see them more?</t>
   </si>
   <si>
-    <t>rat_time_4</t>
-  </si>
-  <si>
     <t>${rat_time}='4'</t>
   </si>
   <si>
@@ -742,9 +652,6 @@
     <t xml:space="preserve">Do you catch or kill them? </t>
   </si>
   <si>
-    <t>kill_rat_1</t>
-  </si>
-  <si>
     <t>${kill_rat}='1'</t>
   </si>
   <si>
@@ -757,9 +664,6 @@
     <t xml:space="preserve">How do you catch or kill them? </t>
   </si>
   <si>
-    <t>kill_Rat_1</t>
-  </si>
-  <si>
     <t>why_catch</t>
   </si>
   <si>
@@ -784,9 +688,6 @@
     <t>Do you have a farm?</t>
   </si>
   <si>
-    <t>farm_1</t>
-  </si>
-  <si>
     <t>${farm}='1'</t>
   </si>
   <si>
@@ -799,9 +700,6 @@
     <t xml:space="preserve">What type of farm? </t>
   </si>
   <si>
-    <t>farm_type_4</t>
-  </si>
-  <si>
     <t>selected(${farm_type}, '4')</t>
   </si>
   <si>
@@ -841,9 +739,6 @@
     <t>Do you make garri?</t>
   </si>
   <si>
-    <t>make_garri_1</t>
-  </si>
-  <si>
     <t>${make_garri}='1'</t>
   </si>
   <si>
@@ -901,9 +796,6 @@
     <t>Can we see the dump site?</t>
   </si>
   <si>
-    <t>see_dump_1</t>
-  </si>
-  <si>
     <t>${see_dump}='1'</t>
   </si>
   <si>
@@ -1268,13 +1160,19 @@
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>other_info_on_lassa</t>
+  </si>
+  <si>
+    <t>gps_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1283,36 +1181,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
-      <sz val="6"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1339,13 +1215,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1673,27 +1546,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CD268B-B036-4EAB-9042-78D73A8451A1}">
   <dimension ref="A1:F174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="18.62890625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1015625" customWidth="1"/>
+    <col min="3" max="3" width="30.89453125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1701,2349 +1581,1587 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
+        <v>377</v>
+      </c>
+      <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="D15" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3" t="s">
+      <c r="C18" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3" t="s">
+      <c r="B27" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="C27" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="2" t="s">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="1" t="s">
+      <c r="B28" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C28" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="2" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="1" t="s">
+      <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C29" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="2" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="1" t="s">
+      <c r="B30" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C30" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" t="s">
+        <v>376</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>66</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>78</v>
+      </c>
+      <c r="B43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="D45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="3" t="s">
+      <c r="C50" t="s">
         <v>91</v>
       </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="D51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="3" t="s">
+      <c r="C57" t="s">
         <v>103</v>
       </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="1" t="s">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="B58" t="s">
         <v>105</v>
       </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" s="1" t="s">
+      <c r="C58" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="2" t="s">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
         <v>107</v>
       </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="C60" t="s">
         <v>108</v>
       </c>
-      <c r="C55" s="2" t="s">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" t="s">
         <v>109</v>
       </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="1" t="s">
+      <c r="C62" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>54</v>
+      </c>
+      <c r="B64" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>114</v>
+      </c>
+      <c r="B65" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D66" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D69" s="3"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>57</v>
+      </c>
+      <c r="B69" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D70" s="3"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>66</v>
+      </c>
+      <c r="B70" t="s">
+        <v>121</v>
+      </c>
+      <c r="C70" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D71" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B72" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D74" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+      <c r="B75" t="s">
+        <v>128</v>
+      </c>
+      <c r="C75" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>130</v>
+      </c>
+      <c r="B76" t="s">
+        <v>131</v>
+      </c>
+      <c r="C76" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>66</v>
+      </c>
+      <c r="B77" t="s">
+        <v>133</v>
+      </c>
+      <c r="C77" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D79" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B80" t="s">
+        <v>136</v>
+      </c>
+      <c r="C80" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D82" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B83" t="s">
+        <v>139</v>
+      </c>
+      <c r="C83" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D85" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B86" t="s">
+        <v>141</v>
+      </c>
+      <c r="C86" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C88" s="1"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D89" s="3"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>57</v>
+      </c>
+      <c r="B89" t="s">
+        <v>142</v>
+      </c>
+      <c r="C89" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D90" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D91" s="3"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>145</v>
+      </c>
+      <c r="B91" t="s">
+        <v>146</v>
+      </c>
+      <c r="C91" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D92" s="3"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>148</v>
+      </c>
+      <c r="B92" t="s">
+        <v>149</v>
+      </c>
+      <c r="C92" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D93" s="3"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>57</v>
+      </c>
+      <c r="B93" t="s">
+        <v>151</v>
+      </c>
+      <c r="C93" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D94" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D95" s="3"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>154</v>
+      </c>
+      <c r="B95" t="s">
+        <v>155</v>
+      </c>
+      <c r="C95" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D96" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B97" t="s">
+        <v>158</v>
+      </c>
+      <c r="C97" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D99" s="3"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>57</v>
+      </c>
+      <c r="B99" t="s">
+        <v>160</v>
+      </c>
+      <c r="C99" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D100" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B101" t="s">
+        <v>163</v>
+      </c>
+      <c r="C101" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C103" s="1"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D104" s="3"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>57</v>
+      </c>
+      <c r="B104" t="s">
+        <v>165</v>
+      </c>
+      <c r="C104" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D105" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>168</v>
+      </c>
+      <c r="B106" t="s">
+        <v>169</v>
+      </c>
+      <c r="C106" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C107" s="2"/>
-      <c r="D107" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D107" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B108" t="s">
+        <v>172</v>
+      </c>
+      <c r="C108" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D111" s="3"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>57</v>
+      </c>
+      <c r="B111" t="s">
+        <v>174</v>
+      </c>
+      <c r="C111" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C112" s="1"/>
-      <c r="D112" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
+      <c r="D112" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="B113" t="s">
+        <v>177</v>
+      </c>
+      <c r="C113" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C114" s="2"/>
-      <c r="D114" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
+      <c r="D114" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="B115" t="s">
+        <v>180</v>
+      </c>
+      <c r="C115" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C116" s="2"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
+        <v>41</v>
+      </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C117" s="2"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
+        <v>41</v>
+      </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C118" s="2"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
+        <v>41</v>
+      </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D119" s="3"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="B119" t="s">
+        <v>182</v>
+      </c>
+      <c r="C119" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C120" s="2"/>
-      <c r="D120" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
+      <c r="D120" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1" t="s">
-        <v>214</v>
+        <v>57</v>
+      </c>
+      <c r="B121" t="s">
+        <v>185</v>
+      </c>
+      <c r="C121" t="s">
+        <v>186</v>
+      </c>
+      <c r="F121" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C122" s="2"/>
-      <c r="D122" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
+      <c r="D122" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D123" s="3"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
+        <v>189</v>
+      </c>
+      <c r="B123" t="s">
+        <v>190</v>
+      </c>
+      <c r="C123" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C124" s="2"/>
-      <c r="D124" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
+      <c r="D124" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
+      <c r="B125" t="s">
+        <v>193</v>
+      </c>
+      <c r="C125" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C126" s="2"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
+        <v>41</v>
+      </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D127" s="3"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="B127" t="s">
+        <v>195</v>
+      </c>
+      <c r="C127" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D128" s="3"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>197</v>
+      </c>
+      <c r="B128" t="s">
+        <v>198</v>
+      </c>
+      <c r="C128" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C129" s="2"/>
-      <c r="D129" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D129" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>201</v>
+      </c>
+      <c r="B130" t="s">
+        <v>202</v>
+      </c>
+      <c r="C130" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C131" s="2"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D132" s="3"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>57</v>
+      </c>
+      <c r="B132" t="s">
+        <v>204</v>
+      </c>
+      <c r="C132" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C133" s="2"/>
-      <c r="D133" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D133" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D134" s="3"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>207</v>
+      </c>
+      <c r="B134" t="s">
+        <v>208</v>
+      </c>
+      <c r="C134" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C135" s="2"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D136" s="3"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B136" t="s">
+        <v>210</v>
+      </c>
+      <c r="C136" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D137" s="3"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B137" t="s">
+        <v>212</v>
+      </c>
+      <c r="C137" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D138" s="3"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>57</v>
+      </c>
+      <c r="B138" t="s">
+        <v>214</v>
+      </c>
+      <c r="C138" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C139" s="2"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C140" s="2"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D141" s="3"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>57</v>
+      </c>
+      <c r="B141" t="s">
+        <v>216</v>
+      </c>
+      <c r="C141" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C142" s="2"/>
-      <c r="D142" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D142" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D143" s="3"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>219</v>
+      </c>
+      <c r="B143" t="s">
+        <v>220</v>
+      </c>
+      <c r="C143" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C144" s="2"/>
-      <c r="D144" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D144" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B145" t="s">
+        <v>223</v>
+      </c>
+      <c r="C145" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C146" s="2"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D147" s="3"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>57</v>
+      </c>
+      <c r="B147" t="s">
+        <v>225</v>
+      </c>
+      <c r="C147" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D148" s="3"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B148" t="s">
+        <v>227</v>
+      </c>
+      <c r="C148" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C149" s="2"/>
-      <c r="D149" s="3"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D150" s="3"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B150" t="s">
+        <v>229</v>
+      </c>
+      <c r="C150" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D151" s="3"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>57</v>
+      </c>
+      <c r="B151" t="s">
+        <v>231</v>
+      </c>
+      <c r="C151" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D152" s="3"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B152" t="s">
+        <v>233</v>
+      </c>
+      <c r="C152" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C153" s="2"/>
-      <c r="D153" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D153" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B154" t="s">
+        <v>236</v>
+      </c>
+      <c r="C154" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C155" s="2"/>
-      <c r="D155" s="3"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D156" s="3"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B156" t="s">
+        <v>238</v>
+      </c>
+      <c r="C156" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D157" s="3"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>57</v>
+      </c>
+      <c r="B157" t="s">
+        <v>240</v>
+      </c>
+      <c r="C157" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D158" s="3"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B158" t="s">
+        <v>242</v>
+      </c>
+      <c r="C158" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D159" s="3"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>57</v>
+      </c>
+      <c r="B159" t="s">
+        <v>244</v>
+      </c>
+      <c r="C159" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D160" s="3"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>57</v>
+      </c>
+      <c r="B160" t="s">
+        <v>246</v>
+      </c>
+      <c r="C160" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D161" s="3"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B161" t="s">
+        <v>248</v>
+      </c>
+      <c r="C161" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D162" s="3"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B162" t="s">
+        <v>250</v>
+      </c>
+      <c r="C162" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D163" s="3"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>57</v>
+      </c>
+      <c r="B163" t="s">
+        <v>252</v>
+      </c>
+      <c r="C163" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C164" s="1"/>
-      <c r="D164" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D164" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D165" s="3"/>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B165" t="s">
+        <v>255</v>
+      </c>
+      <c r="C165" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D166" s="3"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B166" t="s">
+        <v>257</v>
+      </c>
+      <c r="C166" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C167" s="2"/>
-      <c r="D167" s="3"/>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B168" s="1"/>
-      <c r="C168" s="2"/>
-      <c r="D168" s="3"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B169" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D169" s="3"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B169" t="s">
+        <v>258</v>
+      </c>
+      <c r="C169" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B170" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D170" s="3"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B170" t="s">
+        <v>260</v>
+      </c>
+      <c r="C170" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="D171" s="3"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B171" t="s">
+        <v>262</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B172" s="1"/>
-      <c r="C172" s="2"/>
-      <c r="D172" s="3"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B173" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D173" s="3"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B173" t="s">
+        <v>264</v>
+      </c>
+      <c r="C173" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D174" s="3"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
+      <c r="B174" t="s">
+        <v>266</v>
+      </c>
+      <c r="C174" t="s">
+        <v>267</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A139">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4051,8 +3169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638DB053-6650-4ABB-AD99-233C6980C15E}">
   <dimension ref="A1:C145"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A143" zoomScale="82" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4064,7 +3182,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4075,57 +3193,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -4136,7 +3254,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -4147,84 +3265,84 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>377</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>377</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>377</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>377</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>377</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>377</v>
       </c>
       <c r="B17">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>377</v>
       </c>
       <c r="B18">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -4235,7 +3353,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -4246,7 +3364,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -4257,7 +3375,7 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -4268,7 +3386,7 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -4279,7 +3397,7 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -4290,7 +3408,7 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -4301,7 +3419,7 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -4312,7 +3430,7 @@
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -4323,1076 +3441,1076 @@
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B38">
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>336</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B42">
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B43">
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B44">
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>340</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B45">
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B46">
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B49">
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>343</v>
+        <v>307</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B50">
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B51">
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>346</v>
+        <v>310</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B54">
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>348</v>
+        <v>312</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B56">
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B57">
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>350</v>
+        <v>314</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B58">
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>351</v>
+        <v>315</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B59">
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B62">
         <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B63">
         <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>354</v>
+        <v>318</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B64">
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>355</v>
+        <v>319</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B65">
         <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B68">
         <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B69">
         <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>360</v>
+        <v>324</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B72">
         <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B73">
         <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B74">
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B75">
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B76">
         <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B79">
         <v>2</v>
       </c>
       <c r="C79" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B80">
         <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B81">
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>368</v>
+        <v>332</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B82">
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B83">
         <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B84">
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>371</v>
+        <v>335</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B87">
         <v>2</v>
       </c>
       <c r="C87" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B88">
         <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>373</v>
+        <v>337</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B89">
         <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B90">
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B91">
         <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B94">
         <v>2</v>
       </c>
       <c r="C94" t="s">
-        <v>378</v>
+        <v>342</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B95">
         <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>380</v>
+        <v>344</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B98">
         <v>2</v>
       </c>
       <c r="C98" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B99">
         <v>3</v>
       </c>
       <c r="C99" t="s">
-        <v>382</v>
+        <v>346</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B102">
         <v>2</v>
       </c>
       <c r="C102" t="s">
-        <v>384</v>
+        <v>348</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>385</v>
+        <v>349</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="B105">
         <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="B106">
         <v>3</v>
       </c>
       <c r="C106" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="B107">
         <v>4</v>
       </c>
       <c r="C107" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>343</v>
+        <v>307</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="B110">
         <v>2</v>
       </c>
       <c r="C110" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="B111">
         <v>3</v>
       </c>
       <c r="C111" t="s">
-        <v>387</v>
+        <v>351</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="B112">
         <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="B115">
         <v>2</v>
       </c>
       <c r="C115" t="s">
-        <v>389</v>
+        <v>353</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="B116">
         <v>3</v>
       </c>
       <c r="C116" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="B117">
         <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B119">
         <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>391</v>
+        <v>355</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B120">
         <v>2</v>
       </c>
       <c r="C120" t="s">
-        <v>392</v>
+        <v>356</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B121">
         <v>3</v>
       </c>
       <c r="C121" t="s">
-        <v>393</v>
+        <v>357</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B122">
         <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B123">
         <v>5</v>
       </c>
       <c r="C123" t="s">
-        <v>395</v>
+        <v>359</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="B125">
         <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>396</v>
+        <v>360</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="B126">
         <v>2</v>
       </c>
       <c r="C126" t="s">
-        <v>397</v>
+        <v>361</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="B127">
         <v>3</v>
       </c>
       <c r="C127" t="s">
-        <v>398</v>
+        <v>362</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="B128">
         <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>399</v>
+        <v>363</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="B129">
         <v>5</v>
       </c>
       <c r="C129" t="s">
-        <v>400</v>
+        <v>364</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="B130">
         <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>401</v>
+        <v>365</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="B131">
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>402</v>
+        <v>366</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="B132">
         <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>403</v>
+        <v>367</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="B133">
         <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="B134">
         <v>10</v>
       </c>
       <c r="C134" t="s">
-        <v>405</v>
+        <v>369</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="B135">
         <v>11</v>
       </c>
       <c r="C135" t="s">
-        <v>406</v>
+        <v>370</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="B136">
         <v>12</v>
       </c>
       <c r="C136" t="s">
-        <v>407</v>
+        <v>371</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="10.8" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>408</v>
+        <v>372</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="B139">
         <v>2</v>
       </c>
       <c r="C139" t="s">
-        <v>409</v>
+        <v>373</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="B140">
         <v>3</v>
       </c>
       <c r="C140" t="s">
-        <v>410</v>
+        <v>374</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="B142">
         <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="B143">
         <v>2</v>
       </c>
       <c r="C143" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="B144">
         <v>3</v>
       </c>
       <c r="C144" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="B145">
         <v>4</v>
       </c>
       <c r="C145" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/survey-GUI/files/survey-choices.xlsx
+++ b/survey-GUI/files/survey-choices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumaiyah\PycharmProjects\FeverFinder\survey-GUI\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A57AF96-B7DB-4594-A092-9541140F3385}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AB4713-794B-4652-B41E-BF19A71BB917}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{A4FC235E-7E3C-4BE2-969B-84D51A1A0258}"/>
+    <workbookView xWindow="-6594" yWindow="2562" windowWidth="14400" windowHeight="7374" activeTab="1" xr2:uid="{A4FC235E-7E3C-4BE2-969B-84D51A1A0258}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1172,7 +1172,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1182,14 +1182,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1215,10 +1207,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1546,8 +1537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CD268B-B036-4EAB-9042-78D73A8451A1}">
   <dimension ref="A1:F174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3125,7 +3116,7 @@
       <c r="B171" t="s">
         <v>262</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C171" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3169,7 +3160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638DB053-6650-4ABB-AD99-233C6980C15E}">
   <dimension ref="A1:C145"/>
   <sheetViews>
-    <sheetView topLeftCell="A143" zoomScale="82" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="82" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>

--- a/survey-GUI/files/survey-choices.xlsx
+++ b/survey-GUI/files/survey-choices.xlsx
@@ -8,31 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumaiyah\PycharmProjects\FeverFinder\survey-GUI\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AB4713-794B-4652-B41E-BF19A71BB917}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5848F6B5-CB9A-4B85-9193-35381C643370}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6594" yWindow="2562" windowWidth="14400" windowHeight="7374" activeTab="1" xr2:uid="{A4FC235E-7E3C-4BE2-969B-84D51A1A0258}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="376">
+  <si>
+    <t>type</t>
+  </si>
   <si>
     <t>name</t>
   </si>
@@ -88,19 +80,19 @@
     <t>village_name</t>
   </si>
   <si>
-    <t xml:space="preserve">Village </t>
+    <t>Village</t>
   </si>
   <si>
     <t>town_name</t>
   </si>
   <si>
-    <t xml:space="preserve">Town </t>
+    <t>Town</t>
   </si>
   <si>
     <t>state_name</t>
   </si>
   <si>
-    <t xml:space="preserve">State </t>
+    <t>State</t>
   </si>
   <si>
     <t>LGA_name</t>
@@ -118,6 +110,9 @@
     <t>select_one GPS_ID</t>
   </si>
   <si>
+    <t>gps_id</t>
+  </si>
+  <si>
     <t>GPS_ID</t>
   </si>
   <si>
@@ -211,7 +206,7 @@
     <t>knows_of_lassa</t>
   </si>
   <si>
-    <t xml:space="preserve">Have you heard of Lassa fever? </t>
+    <t>Have you heard of Lassa fever?</t>
   </si>
   <si>
     <t>${knows_of_lassa} = '1'</t>
@@ -229,6 +224,9 @@
     <t>selected(${info_on_lassa}, '7')</t>
   </si>
   <si>
+    <t>other_info_on_lassa</t>
+  </si>
+  <si>
     <t>Where else did you get information about Lassa Fever?</t>
   </si>
   <si>
@@ -238,7 +236,7 @@
     <t>if_local_name</t>
   </si>
   <si>
-    <t xml:space="preserve">Is there a local name for Lassa Fever? </t>
+    <t>Is there a local name for Lassa Fever?</t>
   </si>
   <si>
     <t>${if_local_name}='1'</t>
@@ -247,7 +245,7 @@
     <t>local_name</t>
   </si>
   <si>
-    <t xml:space="preserve">What is the local name? </t>
+    <t>What is the local name?</t>
   </si>
   <si>
     <t>select_one cause</t>
@@ -256,13 +254,13 @@
     <t>cause</t>
   </si>
   <si>
-    <t xml:space="preserve">What causes this disease? </t>
+    <t>What causes this disease?</t>
   </si>
   <si>
     <t>know_contact</t>
   </si>
   <si>
-    <t xml:space="preserve">Do you know how one can contact this disease? </t>
+    <t>Do you know how one can contact this disease?</t>
   </si>
   <si>
     <t>${know_contact}='1'</t>
@@ -286,7 +284,7 @@
     <t>fear</t>
   </si>
   <si>
-    <t xml:space="preserve">Are you scared of getting Lassa fever? </t>
+    <t>Are you scared of getting Lassa fever?</t>
   </si>
   <si>
     <t>range</t>
@@ -295,7 +293,7 @@
     <t>fear_range</t>
   </si>
   <si>
-    <t xml:space="preserve">On a scale of 0-5 (0 = not scared at all and 5 = very scared) how scared are you of getting Lassa fever?  </t>
+    <t>On a scale of 0-5 (0 = not scared at all and 5 = very scared) how scared are you of getting Lassa fever?</t>
   </si>
   <si>
     <t>start=0 end=5 step=1</t>
@@ -307,7 +305,7 @@
     <t>signs</t>
   </si>
   <si>
-    <t xml:space="preserve">What are the signs of Lassa? </t>
+    <t>What are the signs of Lassa?</t>
   </si>
   <si>
     <t>selected(${signs}, '5')</t>
@@ -322,7 +320,7 @@
     <t>can_kill</t>
   </si>
   <si>
-    <t xml:space="preserve">Can Lassa Fever disease kill?     </t>
+    <t>Can Lassa Fever disease kill?</t>
   </si>
   <si>
     <t>can_treat</t>
@@ -343,7 +341,7 @@
     <t>can_prevent</t>
   </si>
   <si>
-    <t xml:space="preserve">Can Lassa Fever be prevented? </t>
+    <t>Can Lassa Fever be prevented?</t>
   </si>
   <si>
     <t>select_multiple how_prevent</t>
@@ -358,7 +356,7 @@
     <t>take_vaccine</t>
   </si>
   <si>
-    <t xml:space="preserve">If there was a good vaccine would you take it? </t>
+    <t>If there was a good vaccine would you take it?</t>
   </si>
   <si>
     <t>know_LF_patient</t>
@@ -430,7 +428,7 @@
     <t>distance_treatment</t>
   </si>
   <si>
-    <t xml:space="preserve">How far is the main place of treatment from your home? </t>
+    <t>How far is the main place of treatment from your home?</t>
   </si>
   <si>
     <t>early_treatment</t>
@@ -484,13 +482,13 @@
     <t>fever_intensity</t>
   </si>
   <si>
-    <t xml:space="preserve">How intense was the fever ? </t>
+    <t>How intense was the fever ?</t>
   </si>
   <si>
     <t>fever_treatment</t>
   </si>
   <si>
-    <t xml:space="preserve">Did you receive treatment for the fever? </t>
+    <t>Did you receive treatment for the fever?</t>
   </si>
   <si>
     <t>${fever_treatment}='1'</t>
@@ -517,7 +515,7 @@
     <t>tell_treatment_type</t>
   </si>
   <si>
-    <t xml:space="preserve">Can you tell the type of treatment you received?  </t>
+    <t>Can you tell the type of treatment you received?</t>
   </si>
   <si>
     <t>${tell_treatment_type} = '1'</t>
@@ -532,7 +530,7 @@
     <t>know_fever_cause</t>
   </si>
   <si>
-    <t xml:space="preserve">Do you know the cause of the fever? </t>
+    <t>Do you know the cause of the fever?</t>
   </si>
   <si>
     <t>${know_fever_cause} = '1'</t>
@@ -568,7 +566,7 @@
     <t>family_get_fever</t>
   </si>
   <si>
-    <t xml:space="preserve">Did any of them come down with fever later? </t>
+    <t>Did any of them come down with fever later?</t>
   </si>
   <si>
     <t>${family_get_fever}='1'</t>
@@ -583,7 +581,7 @@
     <t>rats_present</t>
   </si>
   <si>
-    <t xml:space="preserve">Have you seen rats around your home, farm or workplace?  </t>
+    <t>Have you seen rats around your home, farm or workplace?</t>
   </si>
   <si>
     <t>${rats_present}='1'</t>
@@ -592,7 +590,7 @@
     <t>mastomys</t>
   </si>
   <si>
-    <t xml:space="preserve">Have you ever seen this type of rat? </t>
+    <t>Have you ever seen this type of rat?</t>
   </si>
   <si>
     <t>rat.jpg</t>
@@ -649,7 +647,7 @@
     <t>kill_rat</t>
   </si>
   <si>
-    <t xml:space="preserve">Do you catch or kill them? </t>
+    <t>Do you catch or kill them?</t>
   </si>
   <si>
     <t>${kill_rat}='1'</t>
@@ -661,7 +659,7 @@
     <t>how_kill_rat</t>
   </si>
   <si>
-    <t xml:space="preserve">How do you catch or kill them? </t>
+    <t>How do you catch or kill them?</t>
   </si>
   <si>
     <t>why_catch</t>
@@ -673,13 +671,13 @@
     <t>why_catch2</t>
   </si>
   <si>
-    <t xml:space="preserve">What do you do with them when you catch them? </t>
+    <t>What do you do with them when you catch them?</t>
   </si>
   <si>
     <t>eat_rat</t>
   </si>
   <si>
-    <t xml:space="preserve">Do you eat them?   </t>
+    <t>Do you eat them?</t>
   </si>
   <si>
     <t>farm</t>
@@ -697,7 +695,7 @@
     <t>farm_type</t>
   </si>
   <si>
-    <t xml:space="preserve">What type of farm? </t>
+    <t>What type of farm?</t>
   </si>
   <si>
     <t>selected(${farm_type}, '4')</t>
@@ -730,7 +728,7 @@
     <t>eat_rice</t>
   </si>
   <si>
-    <t xml:space="preserve">Do you eat rice? </t>
+    <t>Do you eat rice?</t>
   </si>
   <si>
     <t>make_garri</t>
@@ -757,7 +755,7 @@
     <t>drink_garri</t>
   </si>
   <si>
-    <t xml:space="preserve">Do you drink garri? </t>
+    <t>Do you drink garri?</t>
   </si>
   <si>
     <t>store_maize</t>
@@ -937,22 +935,22 @@
     <t>Radio</t>
   </si>
   <si>
-    <t xml:space="preserve">Television </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeting </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A friend </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensitization activity </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germs/virus  </t>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t>A friend</t>
+  </si>
+  <si>
+    <t>Sensitization activity</t>
+  </si>
+  <si>
+    <t>Germs/virus</t>
   </si>
   <si>
     <t>Malaria</t>
@@ -964,13 +962,13 @@
     <t>I don't know</t>
   </si>
   <si>
-    <t xml:space="preserve">Staying with sick person  </t>
+    <t>Staying with sick person</t>
   </si>
   <si>
     <t>Eating spoilt food</t>
   </si>
   <si>
-    <t xml:space="preserve">Sexual intercourse </t>
+    <t>Sexual intercourse</t>
   </si>
   <si>
     <t>Eating rats</t>
@@ -979,7 +977,7 @@
     <t>Eating food contaminated with rodent droppings</t>
   </si>
   <si>
-    <t xml:space="preserve">Attending burial </t>
+    <t>Attending burial</t>
   </si>
   <si>
     <t>Fever</t>
@@ -1009,19 +1007,16 @@
     <t>Keep rats away</t>
   </si>
   <si>
-    <t xml:space="preserve">Personal hygiene </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vaccine </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prayers </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not eating bush meat </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A household member </t>
+    <t>Personal hygiene</t>
+  </si>
+  <si>
+    <t>Vaccine</t>
+  </si>
+  <si>
+    <t>Not eating bush meat</t>
+  </si>
+  <si>
+    <t>A household member</t>
   </si>
   <si>
     <t>Neighbour</t>
@@ -1081,9 +1076,6 @@
     <t>Mild</t>
   </si>
   <si>
-    <t>Hospital</t>
-  </si>
-  <si>
     <t>Typhoid</t>
   </si>
   <si>
@@ -1157,15 +1149,6 @@
   </si>
   <si>
     <t>Hunt with dogs or cats</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>other_info_on_lassa</t>
-  </si>
-  <si>
-    <t>gps_id</t>
   </si>
 </sst>
 </file>
@@ -1534,11 +1517,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CD268B-B036-4EAB-9042-78D73A8451A1}">
-  <dimension ref="A1:F174"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F175"/>
   <sheetViews>
-    <sheetView topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="C171" sqref="C171"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="A176" sqref="A176:XFD176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1550,166 +1533,158 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
         <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>377</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
         <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
         <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C15" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1717,296 +1692,293 @@
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
         <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
         <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
         <v>51</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>52</v>
-      </c>
-      <c r="C28" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
         <v>54</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>55</v>
-      </c>
-      <c r="C29" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>58</v>
-      </c>
-      <c r="C30" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
         <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
         <v>62</v>
-      </c>
-      <c r="C32" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
         <v>64</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" t="s">
-        <v>376</v>
-      </c>
-      <c r="C34" t="s">
-        <v>65</v>
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" t="s">
         <v>69</v>
+      </c>
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" t="s">
-        <v>71</v>
+        <v>35</v>
+      </c>
+      <c r="D38" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" t="s">
-        <v>77</v>
+        <v>59</v>
+      </c>
+      <c r="B42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
+      </c>
+      <c r="B44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" t="s">
-        <v>80</v>
+        <v>35</v>
+      </c>
+      <c r="D46" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
         <v>86</v>
@@ -2014,70 +1986,70 @@
       <c r="C49" t="s">
         <v>87</v>
       </c>
-      <c r="E49" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" t="s">
         <v>89</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>90</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E50" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" t="s">
         <v>92</v>
+      </c>
+      <c r="B51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52" t="s">
-        <v>94</v>
+        <v>35</v>
+      </c>
+      <c r="D52" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B54" t="s">
-        <v>95</v>
-      </c>
-      <c r="C54" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B55" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C55" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B56" t="s">
         <v>100</v>
@@ -2088,18 +2060,18 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="B58" t="s">
         <v>105</v>
@@ -2110,58 +2082,58 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
-        <v>41</v>
+        <v>107</v>
+      </c>
+      <c r="B59" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B60" t="s">
-        <v>107</v>
-      </c>
-      <c r="C60" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
-        <v>29</v>
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B62" t="s">
-        <v>109</v>
-      </c>
-      <c r="C62" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D63" t="s">
-        <v>111</v>
+        <v>59</v>
+      </c>
+      <c r="B63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B64" t="s">
-        <v>112</v>
-      </c>
-      <c r="C64" t="s">
-        <v>113</v>
+        <v>35</v>
+      </c>
+      <c r="D64" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="B65" t="s">
         <v>115</v>
@@ -2172,90 +2144,90 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D66" t="s">
         <v>117</v>
+      </c>
+      <c r="B66" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67" t="s">
-        <v>118</v>
-      </c>
-      <c r="C67" t="s">
-        <v>116</v>
+        <v>35</v>
+      </c>
+      <c r="D67" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>121</v>
+      </c>
+      <c r="C68" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B69" t="s">
-        <v>119</v>
-      </c>
-      <c r="C69" t="s">
-        <v>120</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B70" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C70" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D71" t="s">
-        <v>123</v>
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>124</v>
+      </c>
+      <c r="C71" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B72" t="s">
-        <v>124</v>
-      </c>
-      <c r="C72" t="s">
-        <v>125</v>
+        <v>35</v>
+      </c>
+      <c r="D72" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D74" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B75" t="s">
-        <v>128</v>
-      </c>
-      <c r="C75" t="s">
+        <v>35</v>
+      </c>
+      <c r="D75" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2272,124 +2244,124 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="B77" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C77" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="B78" t="s">
+        <v>136</v>
+      </c>
+      <c r="C78" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D79" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B80" t="s">
-        <v>136</v>
-      </c>
-      <c r="C80" t="s">
-        <v>137</v>
+        <v>35</v>
+      </c>
+      <c r="D80" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
+      </c>
+      <c r="B81" t="s">
+        <v>139</v>
+      </c>
+      <c r="C81" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D82" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B83" t="s">
-        <v>139</v>
-      </c>
-      <c r="C83" t="s">
-        <v>137</v>
+        <v>35</v>
+      </c>
+      <c r="D83" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
+      </c>
+      <c r="B84" t="s">
+        <v>142</v>
+      </c>
+      <c r="C84" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D85" t="s">
-        <v>140</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B86" t="s">
-        <v>141</v>
-      </c>
-      <c r="C86" t="s">
-        <v>137</v>
+        <v>35</v>
+      </c>
+      <c r="D86" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
+      </c>
+      <c r="B87" t="s">
+        <v>144</v>
+      </c>
+      <c r="C87" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B89" t="s">
-        <v>142</v>
-      </c>
-      <c r="C89" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D90" t="s">
-        <v>144</v>
+        <v>59</v>
+      </c>
+      <c r="B90" t="s">
+        <v>145</v>
+      </c>
+      <c r="C90" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B91" t="s">
-        <v>146</v>
-      </c>
-      <c r="C91" t="s">
+        <v>35</v>
+      </c>
+      <c r="D91" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2406,311 +2378,311 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1" t="s">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="B93" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C93" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D94" t="s">
-        <v>153</v>
+        <v>59</v>
+      </c>
+      <c r="B94" t="s">
+        <v>154</v>
+      </c>
+      <c r="C94" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B95" t="s">
-        <v>155</v>
-      </c>
-      <c r="C95" t="s">
+        <v>35</v>
+      </c>
+      <c r="D95" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D96" t="s">
         <v>157</v>
+      </c>
+      <c r="B96" t="s">
+        <v>158</v>
+      </c>
+      <c r="C96" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B97" t="s">
-        <v>158</v>
-      </c>
-      <c r="C97" t="s">
-        <v>159</v>
+        <v>35</v>
+      </c>
+      <c r="D97" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
+      </c>
+      <c r="B98" t="s">
+        <v>161</v>
+      </c>
+      <c r="C98" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B99" t="s">
-        <v>160</v>
-      </c>
-      <c r="C99" t="s">
-        <v>161</v>
+        <v>43</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D100" t="s">
-        <v>162</v>
+        <v>59</v>
+      </c>
+      <c r="B100" t="s">
+        <v>163</v>
+      </c>
+      <c r="C100" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B101" t="s">
-        <v>163</v>
-      </c>
-      <c r="C101" t="s">
-        <v>164</v>
+        <v>35</v>
+      </c>
+      <c r="D101" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
+      </c>
+      <c r="B102" t="s">
+        <v>166</v>
+      </c>
+      <c r="C102" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B104" t="s">
-        <v>165</v>
-      </c>
-      <c r="C104" t="s">
-        <v>166</v>
+        <v>43</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D105" t="s">
-        <v>167</v>
+        <v>59</v>
+      </c>
+      <c r="B105" t="s">
+        <v>168</v>
+      </c>
+      <c r="C105" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B106" t="s">
-        <v>169</v>
-      </c>
-      <c r="C106" t="s">
+        <v>35</v>
+      </c>
+      <c r="D106" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D107" t="s">
         <v>171</v>
+      </c>
+      <c r="B107" t="s">
+        <v>172</v>
+      </c>
+      <c r="C107" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B108" t="s">
-        <v>172</v>
-      </c>
-      <c r="C108" t="s">
-        <v>173</v>
+        <v>35</v>
+      </c>
+      <c r="D108" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
+      </c>
+      <c r="B109" t="s">
+        <v>175</v>
+      </c>
+      <c r="C109" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B111" t="s">
-        <v>174</v>
-      </c>
-      <c r="C111" t="s">
-        <v>175</v>
+        <v>43</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D112" t="s">
-        <v>176</v>
+        <v>59</v>
+      </c>
+      <c r="B112" t="s">
+        <v>177</v>
+      </c>
+      <c r="C112" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B113" t="s">
-        <v>177</v>
-      </c>
-      <c r="C113" t="s">
-        <v>178</v>
+        <v>35</v>
+      </c>
+      <c r="D113" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D114" t="s">
-        <v>179</v>
+        <v>59</v>
+      </c>
+      <c r="B114" t="s">
+        <v>180</v>
+      </c>
+      <c r="C114" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B115" t="s">
-        <v>180</v>
-      </c>
-      <c r="C115" t="s">
-        <v>181</v>
+        <v>35</v>
+      </c>
+      <c r="D115" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1" t="s">
-        <v>41</v>
+        <v>59</v>
+      </c>
+      <c r="B116" t="s">
+        <v>183</v>
+      </c>
+      <c r="C116" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B119" t="s">
-        <v>182</v>
-      </c>
-      <c r="C119" t="s">
-        <v>183</v>
+        <v>43</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D120" t="s">
-        <v>184</v>
+        <v>59</v>
+      </c>
+      <c r="B120" t="s">
+        <v>185</v>
+      </c>
+      <c r="C120" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B121" t="s">
-        <v>185</v>
-      </c>
-      <c r="C121" t="s">
-        <v>186</v>
-      </c>
-      <c r="F121" t="s">
+        <v>35</v>
+      </c>
+      <c r="D121" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D122" t="s">
+        <v>59</v>
+      </c>
+      <c r="B122" t="s">
         <v>188</v>
+      </c>
+      <c r="C122" t="s">
+        <v>189</v>
+      </c>
+      <c r="F122" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B123" t="s">
-        <v>190</v>
-      </c>
-      <c r="C123" t="s">
+        <v>35</v>
+      </c>
+      <c r="D123" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D124" t="s">
         <v>192</v>
+      </c>
+      <c r="B124" t="s">
+        <v>193</v>
+      </c>
+      <c r="C124" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B125" t="s">
-        <v>193</v>
-      </c>
-      <c r="C125" t="s">
-        <v>194</v>
+        <v>35</v>
+      </c>
+      <c r="D125" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
+      </c>
+      <c r="B126" t="s">
+        <v>196</v>
+      </c>
+      <c r="C126" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B127" t="s">
-        <v>195</v>
-      </c>
-      <c r="C127" t="s">
-        <v>196</v>
+        <v>43</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1" t="s">
-        <v>197</v>
+        <v>59</v>
       </c>
       <c r="B128" t="s">
         <v>198</v>
@@ -2721,430 +2693,441 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D129" t="s">
         <v>200</v>
+      </c>
+      <c r="B129" t="s">
+        <v>201</v>
+      </c>
+      <c r="C129" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B130" t="s">
-        <v>202</v>
-      </c>
-      <c r="C130" t="s">
+        <v>35</v>
+      </c>
+      <c r="D130" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1" t="s">
-        <v>41</v>
+        <v>204</v>
+      </c>
+      <c r="B131" t="s">
+        <v>205</v>
+      </c>
+      <c r="C131" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B132" t="s">
-        <v>204</v>
-      </c>
-      <c r="C132" t="s">
-        <v>205</v>
+        <v>43</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D133" t="s">
-        <v>206</v>
+        <v>59</v>
+      </c>
+      <c r="B133" t="s">
+        <v>207</v>
+      </c>
+      <c r="C133" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B134" t="s">
-        <v>208</v>
-      </c>
-      <c r="C134" t="s">
+        <v>35</v>
+      </c>
+      <c r="D134" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1" t="s">
-        <v>41</v>
+        <v>210</v>
+      </c>
+      <c r="B135" t="s">
+        <v>211</v>
+      </c>
+      <c r="C135" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B136" t="s">
-        <v>210</v>
-      </c>
-      <c r="C136" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B137" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C137" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="B138" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C138" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1" t="s">
-        <v>41</v>
+        <v>59</v>
+      </c>
+      <c r="B139" t="s">
+        <v>217</v>
+      </c>
+      <c r="C139" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B141" t="s">
-        <v>216</v>
-      </c>
-      <c r="C141" t="s">
-        <v>217</v>
+        <v>43</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D142" t="s">
-        <v>218</v>
+        <v>59</v>
+      </c>
+      <c r="B142" t="s">
+        <v>219</v>
+      </c>
+      <c r="C142" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B143" t="s">
-        <v>220</v>
-      </c>
-      <c r="C143" t="s">
+        <v>35</v>
+      </c>
+      <c r="D143" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D144" t="s">
         <v>222</v>
+      </c>
+      <c r="B144" t="s">
+        <v>223</v>
+      </c>
+      <c r="C144" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B145" t="s">
-        <v>223</v>
-      </c>
-      <c r="C145" t="s">
-        <v>224</v>
+        <v>35</v>
+      </c>
+      <c r="D145" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
+      </c>
+      <c r="B146" t="s">
+        <v>226</v>
+      </c>
+      <c r="C146" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B147" t="s">
-        <v>225</v>
-      </c>
-      <c r="C147" t="s">
-        <v>226</v>
+        <v>43</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="B148" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C148" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
+      </c>
+      <c r="B149" t="s">
+        <v>230</v>
+      </c>
+      <c r="C149" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B150" t="s">
-        <v>229</v>
-      </c>
-      <c r="C150" t="s">
-        <v>230</v>
+        <v>43</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="B151" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C151" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="B152" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C152" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D153" t="s">
-        <v>235</v>
+        <v>6</v>
+      </c>
+      <c r="B153" t="s">
+        <v>236</v>
+      </c>
+      <c r="C153" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B154" t="s">
-        <v>236</v>
-      </c>
-      <c r="C154" t="s">
-        <v>237</v>
+        <v>35</v>
+      </c>
+      <c r="D154" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
+      </c>
+      <c r="B155" t="s">
+        <v>239</v>
+      </c>
+      <c r="C155" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B156" t="s">
-        <v>238</v>
-      </c>
-      <c r="C156" t="s">
-        <v>239</v>
+        <v>43</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="B157" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C157" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="B158" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C158" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="B159" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C159" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B160" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C160" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="B161" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C161" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B162" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C162" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="B163" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C163" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D164" t="s">
-        <v>254</v>
+        <v>59</v>
+      </c>
+      <c r="B164" t="s">
+        <v>255</v>
+      </c>
+      <c r="C164" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B165" t="s">
-        <v>255</v>
-      </c>
-      <c r="C165" t="s">
-        <v>256</v>
+        <v>35</v>
+      </c>
+      <c r="D165" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B166" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C166" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
+      </c>
+      <c r="B167" t="s">
+        <v>260</v>
+      </c>
+      <c r="C167" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B169" t="s">
-        <v>258</v>
-      </c>
-      <c r="C169" t="s">
-        <v>259</v>
+        <v>31</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B170" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C170" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B171" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C171" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
+      </c>
+      <c r="B172" t="s">
+        <v>265</v>
+      </c>
+      <c r="C172" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B173" t="s">
-        <v>264</v>
-      </c>
-      <c r="C173" t="s">
-        <v>265</v>
+        <v>31</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C174" t="s">
-        <v>267</v>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B175" t="s">
+        <v>269</v>
+      </c>
+      <c r="C175" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -3152,15 +3135,15 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638DB053-6650-4ABB-AD99-233C6980C15E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="82" workbookViewId="0">
+    <sheetView topLeftCell="A133" zoomScale="82" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -3173,1335 +3156,1335 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>377</v>
+        <v>29</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>377</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>377</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>377</v>
+        <v>29</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>377</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>377</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>377</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B25">
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B38">
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B42">
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B43">
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B44">
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B45">
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B46">
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B49">
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B50">
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B51">
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B54">
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B56">
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B57">
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B58">
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B59">
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B62">
         <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B63">
         <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B64">
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B65">
         <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B68">
         <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B69">
         <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B72">
         <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B73">
         <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B74">
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B75">
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B76">
         <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B79">
         <v>2</v>
       </c>
       <c r="C79" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B80">
         <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B81">
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B82">
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B83">
         <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B84">
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B87">
         <v>2</v>
       </c>
       <c r="C87" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B88">
         <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B89">
         <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B90">
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B91">
         <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B94">
         <v>2</v>
       </c>
       <c r="C94" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B95">
         <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B98">
         <v>2</v>
       </c>
       <c r="C98" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B99">
         <v>3</v>
       </c>
       <c r="C99" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B102">
         <v>2</v>
       </c>
       <c r="C102" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>349</v>
+        <v>306</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B105">
         <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B106">
         <v>3</v>
       </c>
       <c r="C106" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B107">
         <v>4</v>
       </c>
       <c r="C107" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B110">
         <v>2</v>
       </c>
       <c r="C110" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B111">
         <v>3</v>
       </c>
       <c r="C111" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B112">
         <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B115">
         <v>2</v>
       </c>
       <c r="C115" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B116">
         <v>3</v>
       </c>
       <c r="C116" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B117">
         <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B119">
         <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B120">
         <v>2</v>
       </c>
       <c r="C120" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B121">
         <v>3</v>
       </c>
       <c r="C121" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B122">
         <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B123">
         <v>5</v>
       </c>
       <c r="C123" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B125">
         <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B126">
         <v>2</v>
       </c>
       <c r="C126" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B127">
         <v>3</v>
       </c>
       <c r="C127" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B128">
         <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B129">
         <v>5</v>
       </c>
       <c r="C129" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B130">
         <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B131">
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B132">
         <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B133">
         <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B134">
         <v>10</v>
       </c>
       <c r="C134" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B135">
         <v>11</v>
       </c>
       <c r="C135" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B136">
         <v>12</v>
       </c>
       <c r="C136" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="10.8" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B139">
         <v>2</v>
       </c>
       <c r="C139" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B140">
         <v>3</v>
       </c>
       <c r="C140" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B142">
         <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B143">
         <v>2</v>
       </c>
       <c r="C143" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B144">
         <v>3</v>
       </c>
       <c r="C144" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B145">
         <v>4</v>
       </c>
       <c r="C145" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/survey-GUI/files/survey-choices.xlsx
+++ b/survey-GUI/files/survey-choices.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10392" windowWidth="19392" xWindow="-96" yWindow="-96"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7374" windowWidth="14400" xWindow="0" yWindow="2562"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId1"/>
@@ -376,16 +376,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F174"/>
+  <dimension ref="A1:F180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="1" width="18.62890625"/>
-    <col customWidth="1" max="2" min="2" width="15.1015625"/>
+    <col customWidth="1" max="2" min="2" width="17.62890625"/>
     <col customWidth="1" max="3" min="3" width="30.89453125"/>
   </cols>
   <sheetData>
@@ -2733,90 +2733,192 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>select_one yes_no_2</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>who_live_with</t>
+          <t>has_facial_swelling</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Who do you live with?</t>
+          <t>Do you have facial swelling?</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>select_one yes_no_2</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>who_sharefood_with</t>
+          <t>has_muscle_fatigue</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Who do you share food with?</t>
+          <t>Do you have muscle fatigue?</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>select_one yes_no_2</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>who_work_with</t>
+          <t>has_vomiting</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Who do you work with?</t>
+          <t>Are you vomiting?</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>new_section</t>
+          <t>select_one yes_no_3</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>has_cough</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Do you have a cough?</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>select_one yes_no_4</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>questions</t>
+          <t>has_meningitis</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Please, do you have any question for me?</t>
+          <t>Do you have meningitis?</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
+          <t>select_one yes_no_5</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>has_hypertension</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Do you have hypertension?</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="inlineStr">
+        <is>
           <t>text</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>who_live_with</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Who do you live with?</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>who_sharefood_with</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Who do you share food with?</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>who_work_with</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Who do you work with?</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="inlineStr">
+        <is>
+          <t>new_section</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>questions</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Please, do you have any question for me?</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
         <is>
           <t>notes</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>Include any notes about this interview</t>
         </is>

--- a/survey-GUI/files/survey-choices.xlsx
+++ b/survey-GUI/files/survey-choices.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10392" windowWidth="19392" xWindow="-96" yWindow="-96"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10536" windowWidth="19392" xWindow="-96" yWindow="-96"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId1"/>
@@ -376,10 +376,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F174"/>
+  <dimension ref="A1:F180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -577,7 +577,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>gps_coord</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2733,90 +2733,192 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>select_one yes_no_2</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>who_live_with</t>
+          <t>has_facial_swelling</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Who do you live with?</t>
+          <t>Do you have facial swelling?</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>select_one yes_no_2</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>who_sharefood_with</t>
+          <t>has_muscle_fatigue</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Who do you share food with?</t>
+          <t>Do you have muscle fatigue?</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>select_one yes_no_2</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>who_work_with</t>
+          <t>has_vomiting</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Who do you work with?</t>
+          <t>Are you vomiting?</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>new_section</t>
+          <t>select_one yes_no_2</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>has_cough</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Do you have a cough?</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>select_one yes_no_2</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>questions</t>
+          <t>has_meningitis</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Please, do you have any question for me?</t>
+          <t>Do you have meningitis?</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
+          <t>select_one yes_no_2</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>has_hypertension</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Do you have hypertension?</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="inlineStr">
+        <is>
           <t>text</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>who_live_with</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Who do you live with?</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>who_sharefood_with</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Who do you share food with?</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>who_work_with</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Who do you work with?</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="inlineStr">
+        <is>
+          <t>new_section</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>questions</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Please, do you have any question for me?</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
         <is>
           <t>notes</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>Include any notes about this interview</t>
         </is>
